--- a/sample_data/20 AUG 2023 DEWAS.xlsx
+++ b/sample_data/20 AUG 2023 DEWAS.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\New folder\Rutuja\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{603E8447-8676-4A3A-B68E-17B702BED69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
+    <workbookView windowWidth="18350" windowHeight="6830"/>
   </bookViews>
   <sheets>
     <sheet name="export - 2023-08-20T102603.047" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -43,6 +37,9 @@
     <t>Quantity Received</t>
   </si>
   <si>
+    <t>PENDING</t>
+  </si>
+  <si>
     <t>UOM</t>
   </si>
   <si>
@@ -161,43 +158,77 @@
   </si>
   <si>
     <t>TARPAULIN 150 GSM WITH EYELETS - RATE PER SQFT</t>
-  </si>
-  <si>
-    <t>PENDING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,7 +236,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,96 +244,81 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -315,175 +331,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -493,6 +522,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,7 +562,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,15 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -577,17 +612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,106 +632,130 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -751,7 +804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -784,26 +837,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -836,23 +872,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -994,26 +1013,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,27 +1050,27 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>44965.687627314815</v>
+        <v>44965.6876273148</v>
       </c>
       <c r="E2">
         <v>1200</v>
@@ -1072,24 +1086,24 @@
         <v>386</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>44979.187731481485</v>
+        <v>44979.1877314815</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1105,24 +1119,24 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
-        <v>45020.354456018518</v>
+        <v>45020.3544560185</v>
       </c>
       <c r="E4">
         <v>400</v>
@@ -1138,24 +1152,24 @@
         <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>45099.521284722221</v>
+        <v>45099.5212847222</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1171,24 +1185,24 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
-        <v>45099.521284722221</v>
+        <v>45099.5212847222</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -1204,24 +1218,24 @@
         <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
-        <v>45105.521041666667</v>
+        <v>45105.5210416667</v>
       </c>
       <c r="E7">
         <v>3000</v>
@@ -1237,24 +1251,24 @@
         <v>3000</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
-        <v>45105.521041666667</v>
+        <v>45105.5210416667</v>
       </c>
       <c r="E8">
         <v>5000</v>
@@ -1270,24 +1284,24 @@
         <v>5000</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>45105.521041666667</v>
+        <v>45105.5210416667</v>
       </c>
       <c r="E9">
         <v>5000</v>
@@ -1303,24 +1317,24 @@
         <v>5000</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
-        <v>45105.521041666667</v>
+        <v>45105.5210416667</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1336,24 +1350,24 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1">
-        <v>45106.354756944442</v>
+        <v>45106.3547569444</v>
       </c>
       <c r="E11">
         <v>288</v>
@@ -1369,24 +1383,24 @@
         <v>288</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
-        <v>45135.354409722226</v>
+        <v>45135.3544097222</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -1402,24 +1416,24 @@
         <v>1000</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1">
-        <v>45149.354421296295</v>
+        <v>45149.3544212963</v>
       </c>
       <c r="E13">
         <v>2400</v>
@@ -1435,13 +1449,14 @@
         <v>2400</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>